--- a/11-CollaborationList/UCL.xlsx
+++ b/11-CollaborationList/UCL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D6D706-9F97-0747-8D6A-F5C2CCC60976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB697740-85FE-304E-85F3-D7DFBDB1D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{5FAB20B0-5FD5-FD49-A8D1-27020549867D}"/>
+    <workbookView xWindow="2200" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{5FAB20B0-5FD5-FD49-A8D1-27020549867D}"/>
   </bookViews>
   <sheets>
     <sheet name="UCL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Title</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>R.Amos</t>
-  </si>
-  <si>
-    <t>??-USA</t>
   </si>
   <si>
     <t>WPM WPA</t>
@@ -999,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F21C1CD-2874-A140-9DF8-5550005965E4}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,13 +1124,10 @@
         <v>22</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
